--- a/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
+++ b/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="diagrama de gantt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>DIAGRAMA DE GANTT</t>
   </si>
@@ -36,28 +36,100 @@
     <t>FECHA FIN</t>
   </si>
   <si>
-    <t>Act 1</t>
-  </si>
-  <si>
-    <t>Act 2</t>
-  </si>
-  <si>
-    <t>Act 3</t>
-  </si>
-  <si>
-    <t>Act 4</t>
-  </si>
-  <si>
-    <t>Act 5</t>
-  </si>
-  <si>
-    <t>Act 6</t>
-  </si>
-  <si>
-    <t>fech ini</t>
-  </si>
-  <si>
-    <t>fech fin</t>
+    <t>Act 1 - Formacion en unity</t>
+  </si>
+  <si>
+    <t>Act 2 - Diagrama/caso de uso</t>
+  </si>
+  <si>
+    <t>Act 3 - Desarrollo del videojuego</t>
+  </si>
+  <si>
+    <t>Act 4 - Pruebas de desarrollo</t>
+  </si>
+  <si>
+    <t>Act 5 - Manual</t>
+  </si>
+  <si>
+    <t>ANDRÉS PÉREZ</t>
+  </si>
+  <si>
+    <t>JAIME SANSON</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Script en c# para la recogida de objetos e implementación del jugador</t>
+  </si>
+  <si>
+    <t>Script en c# para el dialogo e interacción con el NPC</t>
+  </si>
+  <si>
+    <t>Script para animar al enemigo e infliga daño al jugador</t>
+  </si>
+  <si>
+    <t>Creación de sprites para el diseño del juego</t>
+  </si>
+  <si>
+    <t>Diseño del mapa, personajes, enemigo, objetos y armas</t>
+  </si>
+  <si>
+    <t>Script en C# para la mecanica de moviento del jugador</t>
+  </si>
+  <si>
+    <t>Sistema de vida de jugador y enemigos</t>
+  </si>
+  <si>
+    <t>Configuración de unity para el trabajo remoto de los miembros del proyecto</t>
+  </si>
+  <si>
+    <t>Aleatorizar niveles del juego</t>
+  </si>
+  <si>
+    <t>Aleatorizar los objetos del juego</t>
+  </si>
+  <si>
+    <t>FJ - JS</t>
+  </si>
+  <si>
+    <t>AP - FJ</t>
+  </si>
+  <si>
+    <t>FJ - AP</t>
+  </si>
+  <si>
+    <t>Sistema de ataque del jugador a los enemigos</t>
+  </si>
+  <si>
+    <t>Entrega de la primera V2 del documento del proyecto</t>
+  </si>
+  <si>
+    <t>Diagrama de gannt, introcucción, justificación, objetivos de proyecto y mensajes NPC</t>
+  </si>
+  <si>
+    <t>Tabla comparativa Unreal Engine vs Unity</t>
+  </si>
+  <si>
+    <t>Historia generica y última revision del docuemento</t>
+  </si>
+  <si>
+    <t>Entrega final del proyecto</t>
+  </si>
+  <si>
+    <t>AP - FJ - JS</t>
   </si>
 </sst>
 </file>
@@ -104,18 +176,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -126,6 +196,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -151,7 +238,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -204,36 +296,78 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$7:$B$12</c:f>
+              <c:f>'diagrama de gantt'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Act 1</c:v>
+                  <c:v>Act 1 - Formacion en unity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Act 2</c:v>
+                  <c:v>Act 2 - Diagrama/caso de uso</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Act 3</c:v>
+                  <c:v>Act 3 - Desarrollo del videojuego</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Act 4</c:v>
+                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Act 5</c:v>
+                  <c:v>AP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Act 6</c:v>
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AP - FJ</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Act 5 - Manual</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AP - FJ - JS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$7:$C$12</c:f>
+              <c:f>'diagrama de gantt'!$C$7:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45292</c:v>
                 </c:pt>
@@ -247,10 +381,52 @@
                   <c:v>45350</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>45394</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>45401</c:v>
+                <c:pt idx="16">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,41 +511,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$7:$B$12</c:f>
+              <c:f>'diagrama de gantt'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Act 1</c:v>
+                  <c:v>Act 1 - Formacion en unity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Act 2</c:v>
+                  <c:v>Act 2 - Diagrama/caso de uso</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Act 3</c:v>
+                  <c:v>Act 3 - Desarrollo del videojuego</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Act 4</c:v>
+                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Act 5</c:v>
+                  <c:v>AP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Act 6</c:v>
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AP - FJ</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Act 5 - Manual</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AP - FJ - JS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$7:$D$12</c:f>
+              <c:f>'diagrama de gantt'!$D$7:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -378,10 +596,52 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +653,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -463,7 +722,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -489,7 +748,7 @@
         <c:axId val="554771328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45409"/>
+          <c:max val="45450"/>
           <c:min val="45292"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -534,7 +793,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -556,7 +815,8 @@
         <c:crossAx val="554769664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="15"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1152,16 +1412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>183774</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50426</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1184,14 +1444,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B6:E12" headerRowCount="0" headerRowDxfId="8">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Columna1" totalsRowLabel="Total" headerRowDxfId="0" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Columna2" headerRowDxfId="1" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Columna3" headerRowDxfId="2" dataDxfId="10" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Columna4" totalsRowFunction="count" headerRowDxfId="3" dataDxfId="9" totalsRowDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B6:F26" headerRowCount="0" headerRowDxfId="19">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" totalsRowLabel="Total" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="Columna2" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Columna3" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Columna4" totalsRowFunction="count" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Columna5" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="J7:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1458,32 +1729,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P16"/>
+  <dimension ref="B3:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="81.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="J3" s="2" t="s">
+    <row r="3" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1496,132 +1769,392 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>45292</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>45322</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>45323</v>
       </c>
       <c r="D8" s="1">
-        <v>78</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45401</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45352</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>45325</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>45351</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>45350</v>
       </c>
       <c r="D10" s="1">
         <v>42</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>45393</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45352</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45366</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45383</v>
+      </c>
+      <c r="D12" s="1">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45412</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45411</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45432</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45373</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45373</v>
+      </c>
+      <c r="D15" s="1">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45352</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45359</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45429</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45429</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45429</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45429</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45432</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C22" s="3">
         <v>45394</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D22" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E22" s="3">
         <v>45401</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>45401</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <f>MIN(C7:C12)</f>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45432</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45432</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45429</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45432</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3">
         <v>45292</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <f>MAX(E7:E12)</f>
-        <v>45407</v>
-      </c>
+      <c r="D26" s="1">
+        <v>158</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45450</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J3:P3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
+++ b/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +149,14 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +189,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +870,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1732,24 +1744,29 @@
   <dimension ref="B3:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="81.28515625" customWidth="1"/>
+    <col min="6" max="6" width="80.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2149,6 +2166,9 @@
       <c r="C30" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
+++ b/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="diagrama de gantt" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama de gantt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>DIAGRAMA DE GANTT</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Entrega de la primera V2 del documento del proyecto</t>
   </si>
   <si>
-    <t>Diagrama de gannt, introcucción, justificación, objetivos de proyecto y mensajes NPC</t>
-  </si>
-  <si>
     <t>Tabla comparativa Unreal Engine vs Unity</t>
   </si>
   <si>
@@ -130,13 +127,67 @@
   </si>
   <si>
     <t>AP - FJ - JS</t>
+  </si>
+  <si>
+    <t>FlyingEnemy.cs: Script para el enemigo volador.</t>
+  </si>
+  <si>
+    <t>Barreras para los enemigos en todos los mapas, para evitar enemigos en sitios extraños.</t>
+  </si>
+  <si>
+    <t>"Batalla contra el jefe"</t>
+  </si>
+  <si>
+    <t>"BossRush"</t>
+  </si>
+  <si>
+    <t>Prefabs de objetos</t>
+  </si>
+  <si>
+    <t>Implementacion de pantalla final ganando</t>
+  </si>
+  <si>
+    <t>Los 3 intengrantes del grupo</t>
+  </si>
+  <si>
+    <t>TAREAS CONJUNTAS</t>
+  </si>
+  <si>
+    <t>Sistema de recogida de los diferentes objetos</t>
+  </si>
+  <si>
+    <t>Aumento de estadiscticas deribado de los objetos del juego</t>
+  </si>
+  <si>
+    <t>Niveles….</t>
+  </si>
+  <si>
+    <t>Nivel tutorial, elegción de objetos</t>
+  </si>
+  <si>
+    <t>Manejo de NPC, interacción continua en el juego con el personaje principal</t>
+  </si>
+  <si>
+    <t>Arreglo del menú principal</t>
+  </si>
+  <si>
+    <t>Diagrama de gantt, introcucción, justificación, objetivos de proyecto y mensajes NPC</t>
+  </si>
+  <si>
+    <t>Actualización del diagrama de gantt y correción de errores de la documentación de la memoria del proyecto</t>
+  </si>
+  <si>
+    <t>Cambios en el script de EnemyStats</t>
+  </si>
+  <si>
+    <t>LEYENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,16 +209,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,11 +274,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,62 +388,311 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="19">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -263,6 +711,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3399FF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF6699FF"/>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,20 +764,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'diagrama de gantt'!$B$7:$B$26</c:f>
+              <c:f>'Diagrama de gantt'!$B$5:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>TAREA</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Act 1 - Formacion en unity</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Act 2 - Diagrama/caso de uso</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Act 3 - Desarrollo del videojuego</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AP</c:v>
@@ -357,18 +813,63 @@
                   <c:v>JS</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Act 5 - Manual</c:v>
+                  <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AP</c:v>
+                  <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>JS</c:v>
+                  <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Act 5 - Manual</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>AP - FJ - JS</c:v>
                 </c:pt>
               </c:strCache>
@@ -376,21 +877,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'diagrama de gantt'!$C$7:$C$26</c:f>
+              <c:f>'Diagrama de gantt'!$C$5:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
+                <c:ptCount val="35"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45292</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45323</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45350</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45352</c:v>
@@ -425,19 +926,25 @@
                 <c:pt idx="14">
                   <c:v>45425</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>45394</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>45429</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>45429</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="33">
                   <c:v>45429</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="34">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -477,7 +984,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -523,20 +1030,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'diagrama de gantt'!$B$7:$B$26</c:f>
+              <c:f>'Diagrama de gantt'!$B$5:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>TAREA</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Act 1 - Formacion en unity</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Act 2 - Diagrama/caso de uso</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Act 3 - Desarrollo del videojuego</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AP</c:v>
@@ -572,18 +1079,63 @@
                   <c:v>JS</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Act 5 - Manual</c:v>
+                  <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AP</c:v>
+                  <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>JS</c:v>
+                  <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>FJ</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Act 5 - Manual</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>AP - FJ - JS</c:v>
                 </c:pt>
               </c:strCache>
@@ -591,21 +1143,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'diagrama de gantt'!$D$7:$D$26</c:f>
+              <c:f>'Diagrama de gantt'!$D$5:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
@@ -640,19 +1192,25 @@
                 <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="33">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="34">
                   <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
@@ -793,7 +1351,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1424,16 +1982,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>183774</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>50426</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>482975</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1456,23 +2014,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B6:F26" headerRowCount="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:F39" headerRowDxfId="0" totalsRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" totalsRowLabel="Total" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" name="Columna2" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="Columna3" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Columna4" totalsRowFunction="count" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Columna5" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="TAREA" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="FECHA INICIO" dataDxfId="4" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="DIAS DE TRABAJO" dataDxfId="3" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="FECHA FIN" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="15"/>
+    <tableColumn id="5" name="Comentario" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="J7:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="J7:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="14" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1" dataDxfId="1"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="0"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="8"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1741,433 +2300,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O30"/>
+  <dimension ref="B3:O43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
+    <row r="5" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
+      <c r="B5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>45292</v>
+      </c>
+      <c r="D6" s="21">
+        <v>30</v>
+      </c>
+      <c r="E6" s="20">
+        <v>45322</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
+        <v>45323</v>
+      </c>
+      <c r="D7" s="21">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20">
+        <v>45352</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20">
+        <v>45325</v>
+      </c>
+      <c r="D8" s="21">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20">
+        <v>45351</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="22">
+        <v>45352</v>
+      </c>
+      <c r="D9" s="21">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20">
+        <v>45366</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20">
+        <v>45383</v>
+      </c>
+      <c r="D10" s="21">
+        <v>29</v>
+      </c>
+      <c r="E10" s="20">
+        <v>45412</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="20">
+        <v>45411</v>
+      </c>
+      <c r="D11" s="21">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20">
+        <v>45432</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="20">
+        <v>45373</v>
+      </c>
+      <c r="D12" s="21">
+        <v>31</v>
+      </c>
+      <c r="E12" s="20">
+        <v>45404</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="20">
+        <v>45373</v>
+      </c>
+      <c r="D13" s="21">
+        <v>31</v>
+      </c>
+      <c r="E13" s="20">
+        <v>45404</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20">
+        <v>45352</v>
+      </c>
+      <c r="D14" s="21">
+        <v>7</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45359</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="20">
+        <v>45434</v>
+      </c>
+      <c r="D15" s="21">
+        <v>22</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45429</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="20">
+        <v>45418</v>
+      </c>
+      <c r="D16" s="21">
+        <v>11</v>
+      </c>
+      <c r="E16" s="20">
+        <v>45429</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="20">
+        <v>45418</v>
+      </c>
+      <c r="D17" s="21">
+        <v>11</v>
+      </c>
+      <c r="E17" s="20">
+        <v>45429</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="20">
+        <v>45422</v>
+      </c>
+      <c r="D18" s="21">
+        <v>7</v>
+      </c>
+      <c r="E18" s="20">
+        <v>45429</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="20">
+        <v>45425</v>
+      </c>
+      <c r="D19" s="21">
+        <v>7</v>
+      </c>
+      <c r="E19" s="20">
+        <v>45432</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="20">
+        <v>45350</v>
+      </c>
+      <c r="D33" s="21">
+        <v>42</v>
+      </c>
+      <c r="E33" s="20">
+        <v>45393</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20">
+        <v>45394</v>
+      </c>
+      <c r="D34" s="21">
+        <v>7</v>
+      </c>
+      <c r="E34" s="20">
+        <v>45401</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="20">
+        <v>45429</v>
+      </c>
+      <c r="D35" s="21">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="E35" s="20">
+        <v>45432</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="20">
+        <v>45439</v>
+      </c>
+      <c r="D36" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="E36" s="20">
+        <v>45443</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="20">
+        <v>45429</v>
+      </c>
+      <c r="D37" s="21">
+        <v>4</v>
+      </c>
+      <c r="E37" s="20">
+        <v>45432</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="20">
+        <v>45429</v>
+      </c>
+      <c r="D38" s="21">
+        <v>4</v>
+      </c>
+      <c r="E38" s="20">
+        <v>45432</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="23">
         <v>45292</v>
       </c>
-      <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45322</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45323</v>
-      </c>
-      <c r="D8" s="1">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45352</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45325</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45351</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45350</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45393</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45352</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45366</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45383</v>
-      </c>
-      <c r="D12" s="1">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45412</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45411</v>
-      </c>
-      <c r="D13" s="1">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45432</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45373</v>
-      </c>
-      <c r="D14" s="1">
-        <v>31</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45404</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45373</v>
-      </c>
-      <c r="D15" s="1">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45404</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45352</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45359</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45434</v>
-      </c>
-      <c r="D17" s="1">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45429</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45418</v>
-      </c>
-      <c r="D18" s="1">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45429</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3">
-        <v>45418</v>
-      </c>
-      <c r="D19" s="1">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45429</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3">
-        <v>45422</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45429</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3">
-        <v>45425</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45432</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3">
-        <v>45394</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45401</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45429</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45432</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45429</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45432</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3">
-        <v>45429</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45432</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="D39" s="24">
+        <v>158</v>
+      </c>
+      <c r="E39" s="23">
+        <v>45450</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45292</v>
-      </c>
-      <c r="D26" s="1">
-        <v>158</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45450</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
+++ b/DOCUMENTATION_PROYECT/diagrama_gantt.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30783109-4AE9-4E4E-A827-FFFA870183DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de gantt" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama de gantt (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>DIAGRAMA DE GANTT</t>
   </si>
@@ -181,12 +183,48 @@
   </si>
   <si>
     <t>LEYENDA</t>
+  </si>
+  <si>
+    <t>Script en c# para gestionar la recogida de items dentro del juego</t>
+  </si>
+  <si>
+    <t>Script en c# para gestionar el aumento de estadisticas del jugador dependiendo del item recogido</t>
+  </si>
+  <si>
+    <t>Sistema de movimiento y doble salto</t>
+  </si>
+  <si>
+    <t>Script en c# que implementa y controla el movimiento del fondo de pantalla con el jugador</t>
+  </si>
+  <si>
+    <t>Sistema de "PopUp" al acercarse a un elemento interactuable</t>
+  </si>
+  <si>
+    <t>Cambio de estadisticas base dependiendo del arma recogida</t>
+  </si>
+  <si>
+    <t>Sistema de combate y de daño dependiendo de los objetos de la mochila</t>
+  </si>
+  <si>
+    <t>Sistema de límite de objetos en la mochila e intercambio de items</t>
+  </si>
+  <si>
+    <t>Diseño y creación del nivel tutorial</t>
+  </si>
+  <si>
+    <t>Script en c# que controla la lógica del nivel tutorial</t>
+  </si>
+  <si>
+    <t>Creación de los niveles en el "tilemap"</t>
+  </si>
+  <si>
+    <t>Nivel inicial, elegción de arma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -374,11 +412,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -415,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -449,9 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,11 +501,81 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -473,7 +583,7 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -486,15 +596,12 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -505,12 +612,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -520,7 +629,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -538,7 +647,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -555,7 +664,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -570,7 +679,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -578,14 +693,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -633,50 +746,31 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -707,7 +801,263 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,7 +1359,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1433,7 +1782,901 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Diagrama de gantt (2)'!$B$5:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>TAREA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Act 1 - Formacion en unity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Act 2 - Diagrama/caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Act 3 - Desarrollo del videojuego</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AP - FJ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Act 5 - Manual</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>AP - FJ - JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Diagrama de gantt (2)'!$C$5:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45430</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45423</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84D7-4C06-BBF0-71507DB795BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Diagrama de gantt (2)'!$B$5:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>TAREA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Act 1 - Formacion en unity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Act 2 - Diagrama/caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Act 3 - Desarrollo del videojuego</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FJ - JS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>FJ - AP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AP - FJ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Act 4 - Pruebas de desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Act 5 - Manual</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>AP</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>JS</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>FJ</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>AP - FJ - JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Diagrama de gantt (2)'!$D$5:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84D7-4C06-BBF0-71507DB795BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="554769664"/>
+        <c:axId val="554771328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554769664"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:softEdge rad="38100"/>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554771328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554771328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45450"/>
+          <c:min val="45292"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554769664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="15"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1978,6 +3221,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1995,7 +3743,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2013,25 +3767,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>326093</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C520D5-75CF-4124-B36C-CF23D37E3611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:F39" headerRowDxfId="0" totalsRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B5:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F39" headerRowDxfId="39" totalsRowDxfId="36" headerRowBorderDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="B5:F39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="TAREA" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="FECHA INICIO" dataDxfId="4" totalsRowDxfId="17"/>
-    <tableColumn id="3" name="DIAS DE TRABAJO" dataDxfId="3" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="FECHA FIN" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="15"/>
-    <tableColumn id="5" name="Comentario" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAREA" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FECHA INICIO" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DIAS DE TRABAJO" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FECHA FIN" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comentario" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="J7:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="14" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="J7:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1" dataDxfId="8"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Columna1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Columna3" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62B3FC04-9C79-4FBB-BE3F-7CB389A3A47B}" name="Tabla13" displayName="Tabla13" ref="B5:F46" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:F46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E8261B1A-4A86-4A7A-B424-C5BF14E72099}" name="TAREA" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{AEA0F973-E809-4577-9469-6A54414DB528}" name="FECHA INICIO" dataDxfId="6" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{055C025A-8A55-45A2-9504-A0193AE8C28E}" name="DIAS DE TRABAJO" dataDxfId="5" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{21882BB4-C364-4783-B632-D7AEAB67F303}" name="FECHA FIN" totalsRowFunction="count" dataDxfId="4" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{AF1B2CDD-86E4-4D0A-8555-6BC6698B5CC5}" name="Comentario" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81FDCC5A-FF16-4DDE-AB3C-A3233D966D7C}" name="Tabla35" displayName="Tabla35" ref="J7:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{03239C53-969D-4DDB-ADE9-93EFC695A37C}" name="Columna1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{007E5602-10E6-4B27-90CA-96EC46AE44EA}" name="Columna3" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2299,11 +4120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,13 +4139,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="H3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2333,549 +4154,549 @@
       <c r="O3" s="4"/>
     </row>
     <row r="5" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>45292</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>30</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>45322</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>45323</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>29</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>45352</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>45325</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>10</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>45351</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>45352</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>14</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>45366</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>45383</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>29</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>45412</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>45411</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>21</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>45432</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>45373</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>31</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>45404</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>45373</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>31</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>45404</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>45352</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>7</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>45359</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>45434</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>22</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>45429</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>45418</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>11</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>45429</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>45418</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>11</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>45429</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>45422</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>7</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>45429</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>45425</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>7</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>45432</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="16" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="16" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="16" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="16" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="16" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="16" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="16" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="16" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="16" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="16" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="16" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>45350</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>42</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>45393</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>45394</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>7</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="18">
         <v>45401</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>45429</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>4</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>45432</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>45439</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>5</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>45443</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>45429</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>4</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>45432</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>45429</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>4</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="18">
         <v>45432</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="21">
         <v>45292</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="22">
         <v>158</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <v>45450</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2915,4 +4736,788 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D976B28-8D87-4F30-9DE4-EF31B85F90F3}">
+  <dimension ref="B3:O46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="H3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="5" spans="2:15" ht="41.25" x14ac:dyDescent="0.8">
+      <c r="B5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="37">
+        <v>45292</v>
+      </c>
+      <c r="D6" s="38">
+        <v>30</v>
+      </c>
+      <c r="E6" s="37">
+        <v>45322</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="37">
+        <v>45323</v>
+      </c>
+      <c r="D7" s="38">
+        <v>29</v>
+      </c>
+      <c r="E7" s="37">
+        <v>45352</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="37">
+        <v>45325</v>
+      </c>
+      <c r="D8" s="38">
+        <v>10</v>
+      </c>
+      <c r="E8" s="37">
+        <v>45351</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="39">
+        <v>45352</v>
+      </c>
+      <c r="D9" s="38">
+        <v>14</v>
+      </c>
+      <c r="E9" s="37">
+        <v>45366</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="37">
+        <v>45352</v>
+      </c>
+      <c r="D10" s="38">
+        <v>7</v>
+      </c>
+      <c r="E10" s="37">
+        <v>45358</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="37">
+        <v>45411</v>
+      </c>
+      <c r="D11" s="38">
+        <v>21</v>
+      </c>
+      <c r="E11" s="37">
+        <v>45432</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="37">
+        <v>45373</v>
+      </c>
+      <c r="D12" s="38">
+        <v>31</v>
+      </c>
+      <c r="E12" s="37">
+        <v>45404</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="37">
+        <v>45373</v>
+      </c>
+      <c r="D13" s="38">
+        <v>15</v>
+      </c>
+      <c r="E13" s="37">
+        <v>45387</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="37">
+        <v>45358</v>
+      </c>
+      <c r="D14" s="38">
+        <v>19</v>
+      </c>
+      <c r="E14" s="37">
+        <v>45377</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="37">
+        <v>45352</v>
+      </c>
+      <c r="D15" s="38">
+        <v>7</v>
+      </c>
+      <c r="E15" s="37">
+        <v>45359</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="37">
+        <v>45413</v>
+      </c>
+      <c r="D16" s="38">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37">
+        <v>45427</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="37">
+        <v>45338</v>
+      </c>
+      <c r="D17" s="38">
+        <v>12</v>
+      </c>
+      <c r="E17" s="37">
+        <v>45349</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="37">
+        <v>45373</v>
+      </c>
+      <c r="D18" s="38">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37">
+        <v>45375</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="37">
+        <v>45355</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37">
+        <v>45356</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="37">
+        <v>45417</v>
+      </c>
+      <c r="D20" s="38">
+        <v>4</v>
+      </c>
+      <c r="E20" s="37">
+        <v>45421</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="37">
+        <v>45403</v>
+      </c>
+      <c r="D21" s="38">
+        <v>10</v>
+      </c>
+      <c r="E21" s="37">
+        <v>45413</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="37">
+        <v>45418</v>
+      </c>
+      <c r="D22" s="38">
+        <v>11</v>
+      </c>
+      <c r="E22" s="37">
+        <v>45429</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="37">
+        <v>45418</v>
+      </c>
+      <c r="D23" s="38">
+        <v>11</v>
+      </c>
+      <c r="E23" s="37">
+        <v>45429</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="37">
+        <v>45422</v>
+      </c>
+      <c r="D24" s="38">
+        <v>7</v>
+      </c>
+      <c r="E24" s="37">
+        <v>45429</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="37">
+        <v>45425</v>
+      </c>
+      <c r="D25" s="38">
+        <v>7</v>
+      </c>
+      <c r="E25" s="37">
+        <v>45432</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D26" s="38">
+        <v>1</v>
+      </c>
+      <c r="E26" s="37">
+        <v>45439</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D27" s="38">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>45439</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D28" s="38">
+        <v>5</v>
+      </c>
+      <c r="E28" s="37">
+        <v>45443</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D29" s="38">
+        <v>5</v>
+      </c>
+      <c r="E29" s="37">
+        <v>45443</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D30" s="38">
+        <v>2</v>
+      </c>
+      <c r="E30" s="37">
+        <v>45440</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D31" s="38">
+        <v>3</v>
+      </c>
+      <c r="E31" s="37">
+        <v>45441</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37">
+        <v>45439</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D33" s="38">
+        <v>5</v>
+      </c>
+      <c r="E33" s="37">
+        <v>45443</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="37">
+        <v>45430</v>
+      </c>
+      <c r="D34" s="38">
+        <v>11</v>
+      </c>
+      <c r="E34" s="37">
+        <v>45441</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="37">
+        <v>45423</v>
+      </c>
+      <c r="D35" s="38">
+        <v>4</v>
+      </c>
+      <c r="E35" s="37">
+        <v>45427</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="37">
+        <v>45428</v>
+      </c>
+      <c r="D36" s="38">
+        <v>8</v>
+      </c>
+      <c r="E36" s="37">
+        <v>45436</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="37">
+        <v>45387</v>
+      </c>
+      <c r="D37" s="38">
+        <v>30</v>
+      </c>
+      <c r="E37" s="37">
+        <v>45417</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="37">
+        <v>45350</v>
+      </c>
+      <c r="D40" s="38">
+        <v>42</v>
+      </c>
+      <c r="E40" s="37">
+        <v>45393</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="37">
+        <v>45394</v>
+      </c>
+      <c r="D41" s="38">
+        <v>7</v>
+      </c>
+      <c r="E41" s="37">
+        <v>45401</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="37">
+        <v>45429</v>
+      </c>
+      <c r="D42" s="38">
+        <v>4</v>
+      </c>
+      <c r="E42" s="37">
+        <v>45432</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="37">
+        <v>45439</v>
+      </c>
+      <c r="D43" s="38">
+        <v>5</v>
+      </c>
+      <c r="E43" s="37">
+        <v>45443</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="39">
+        <v>45429</v>
+      </c>
+      <c r="D44" s="38">
+        <v>4</v>
+      </c>
+      <c r="E44" s="37">
+        <v>45432</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="37">
+        <v>45429</v>
+      </c>
+      <c r="D45" s="38">
+        <v>4</v>
+      </c>
+      <c r="E45" s="37">
+        <v>45432</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="40">
+        <v>45292</v>
+      </c>
+      <c r="D46" s="41">
+        <v>158</v>
+      </c>
+      <c r="E46" s="40">
+        <v>45450</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>